--- a/outputs-card-40-families-6-games.xlsx
+++ b/outputs-card-40-families-6-games.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11088" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11088" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -432,7 +432,7 @@
   </sheetPr>
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3:AK42"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -685,16 +685,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1309,16 +1309,16 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1327,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1347,22 +1347,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1630,16 +1630,16 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1962,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2099,16 +2099,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -2155,22 +2155,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2212,37 +2212,37 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -2539,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2559,10 +2559,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2862,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2907,16 +2907,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -2943,16 +2943,16 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2963,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3293,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -3353,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3367,94 +3367,94 @@
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3519,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3881,16 +3881,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -3953,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3973,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -4018,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4074,10 +4074,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4184,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -4256,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4276,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4291,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -4363,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4377,7 +4377,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>11</v>
@@ -5591,13 +5591,13 @@
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -5612,13 +5612,13 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -5646,25 +5646,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
         <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -5673,31 +5673,31 @@
         <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
         <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
       </c>
       <c r="R4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T4" t="n">
         <v>28</v>
       </c>
       <c r="U4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V4" t="n">
         <v>32</v>
@@ -5706,7 +5706,7 @@
         <v>30</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="n">
         <v>27</v>
@@ -5715,7 +5715,7 @@
         <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
         <v>32</v>
@@ -5724,16 +5724,16 @@
         <v>30</v>
       </c>
       <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="n">
         <v>28</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -5812,28 +5812,28 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
         <v>3</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
         <v>2</v>
@@ -5842,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>2</v>
@@ -5876,25 +5876,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -5903,67 +5903,67 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>6</v>
       </c>
       <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="n">
         <v>5</v>
       </c>
-      <c r="W7" t="n">
-        <v>3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>7</v>
       </c>
-      <c r="AA7" t="n">
-        <v>4</v>
-      </c>
       <c r="AB7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>3</v>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -6000,16 +6000,16 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -6018,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -6039,13 +6039,13 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
@@ -6054,16 +6054,16 @@
         <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
@@ -6075,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -6106,22 +6106,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -6148,16 +6148,16 @@
         <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
@@ -6166,16 +6166,16 @@
         <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>2</v>
@@ -6184,16 +6184,16 @@
         <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>1</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -6385,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
         <v>11</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -6435,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -6451,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -6501,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
@@ -6567,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>13</v>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
         <v>28</v>
@@ -6592,7 +6592,7 @@
         <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J24" t="n">
         <v>26</v>
@@ -6712,19 +6712,19 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>36</v>
+      </c>
+      <c r="E32" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" t="n">
+        <v>32</v>
+      </c>
+      <c r="G32" t="n">
+        <v>33</v>
+      </c>
+      <c r="H32" t="n">
         <v>30</v>
-      </c>
-      <c r="E32" t="n">
-        <v>35</v>
-      </c>
-      <c r="F32" t="n">
-        <v>35</v>
-      </c>
-      <c r="G32" t="n">
-        <v>32</v>
-      </c>
-      <c r="H32" t="n">
-        <v>31</v>
       </c>
       <c r="J32" t="n">
         <v>20</v>
@@ -6737,19 +6737,19 @@
         </is>
       </c>
       <c r="D33" t="n">
+        <v>68</v>
+      </c>
+      <c r="E33" t="n">
+        <v>71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>72</v>
+      </c>
+      <c r="G33" t="n">
+        <v>71</v>
+      </c>
+      <c r="H33" t="n">
         <v>74</v>
-      </c>
-      <c r="E33" t="n">
-        <v>69</v>
-      </c>
-      <c r="F33" t="n">
-        <v>69</v>
-      </c>
-      <c r="G33" t="n">
-        <v>72</v>
-      </c>
-      <c r="H33" t="n">
-        <v>73</v>
       </c>
       <c r="J33" t="n">
         <v>79</v>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -6929,7 +6929,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
         <v>22</v>
@@ -6942,19 +6942,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -6964,16 +6964,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6989,16 +6989,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7059,19 +7059,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v>66</v>
       </c>
       <c r="F11" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
         <v>24</v>
       </c>
-      <c r="E12" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19</v>
-      </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -7103,19 +7103,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -7125,19 +7125,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
         <v>7</v>
       </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10</v>
-      </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
         <v>21</v>
@@ -7207,7 +7207,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
         <v>22</v>
@@ -7223,19 +7223,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
         <v>10</v>
       </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>20</v>
@@ -7248,19 +7248,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
         <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>7</v>
@@ -7273,19 +7273,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>8</v>
@@ -7298,19 +7298,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16</v>
+      </c>
+      <c r="G23" t="n">
         <v>15</v>
       </c>
-      <c r="F23" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" t="n">
-        <v>14</v>
-      </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
         <v>8</v>
@@ -7329,10 +7329,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -7355,19 +7355,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
         <v>66</v>
       </c>
       <c r="F28" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
@@ -7380,19 +7380,19 @@
         </is>
       </c>
       <c r="D29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
         <v>24</v>
       </c>
-      <c r="E29" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19</v>
-      </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="n">
         <v>58</v>
@@ -7405,16 +7405,16 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" t="n">
         <v>22</v>
       </c>
-      <c r="E30" t="n">
-        <v>20</v>
-      </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
         <v>19</v>
@@ -7430,19 +7430,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J31" t="n">
         <v>23</v>
@@ -7455,19 +7455,19 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>35</v>
+      </c>
+      <c r="E32" t="n">
         <v>34</v>
       </c>
-      <c r="E32" t="n">
-        <v>29</v>
-      </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J32" t="n">
         <v>27</v>
@@ -7486,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -7505,19 +7505,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="E36" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F36" t="n">
         <v>2.88</v>
       </c>
-      <c r="F36" t="n">
-        <v>2.96</v>
-      </c>
       <c r="G36" t="n">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="H36" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
     </row>
   </sheetData>
@@ -7533,8 +7533,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -7948,19 +7948,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -7971,16 +7971,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -8068,19 +8068,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
         <v>7</v>
@@ -8097,10 +8097,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -8128,16 +8128,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -8151,13 +8151,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -8191,16 +8191,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -8251,16 +8251,16 @@
         <v>11</v>
       </c>
       <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
         <v>9</v>
       </c>
-      <c r="C37" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" t="n">
-        <v>10</v>
-      </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -8268,19 +8268,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -8448,24 +8448,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>37</v>
@@ -8488,13 +8488,13 @@
         <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -8511,12 +8511,12 @@
         <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -8528,7 +8528,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -8542,15 +8542,15 @@
         <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
         <v>28</v>
@@ -8559,15 +8559,15 @@
         <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
         <v>31</v>
@@ -8579,7 +8579,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -8601,7 +8601,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>28</v>
@@ -8610,15 +8610,15 @@
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>28</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
         <v>37</v>
@@ -8664,46 +8664,46 @@
         <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>28</v>
       </c>
       <c r="C15" t="n">
+        <v>28</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28</v>
+      </c>
+      <c r="E15" t="n">
         <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>36</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>31</v>
@@ -8712,10 +8712,10 @@
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -8737,7 +8737,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
         <v>33</v>
@@ -8760,30 +8760,30 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -8805,7 +8805,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
@@ -8817,24 +8817,24 @@
         <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -8893,33 +8893,33 @@
         <v>22</v>
       </c>
       <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="n">
         <v>22</v>
       </c>
-      <c r="C28" t="n">
-        <v>28</v>
-      </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -8930,21 +8930,21 @@
         <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
         <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>36</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
         <v>36</v>
@@ -9001,32 +9001,32 @@
         <v>36</v>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
         <v>36</v>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B36" t="n">
         <v>21</v>
@@ -9043,24 +9043,24 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
@@ -9069,10 +9069,10 @@
         <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -9094,7 +9094,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B40" t="n">
         <v>21</v>
@@ -9117,13 +9117,13 @@
         <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -9139,8 +9139,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9154,19 +9154,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="B2" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C2" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="G2" t="n">
         <v>26.1</v>
@@ -9181,19 +9181,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="B5" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="C5" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="E5" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="G5" t="n">
         <v>1.94</v>
